--- a/src/WYW.RS232SOCKET/Data/RegisterTemplate.xlsx
+++ b/src/WYW.RS232SOCKET/Data/RegisterTemplate.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -405,7 +405,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"UInt16,UInt32,Float,Double"</formula1>
+      <formula1>"UInt16,Int16,UInt32,Int32,UInt64,Int64,Float,Double"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"读写,只读"</formula1>
